--- a/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/fseENABLER/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/fseENABLER/1.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\it-fse-accreditamento\GATEWAY\A1#111DATASOFTWARE\DATASOFTWARE_SRL\fseENABLER\1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9877B7A4-1A7C-4692-BDF3-CF599C3E8E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CF0680-D251-4ABD-8236-50219B27F65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="244">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1559,7 +1559,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1738,9 +1738,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3216,10 +3213,10 @@
   <dimension ref="A1:W632"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3266,14 +3263,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="69"/>
+      <c r="D2" s="68"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3294,14 +3291,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="77" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="76" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="68"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3322,12 +3319,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="77" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="69"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="47"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3349,12 +3346,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="69"/>
+      <c r="D5" s="68"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3375,8 +3372,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3660,7 +3657,9 @@
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
       <c r="I13" s="56"/>
-      <c r="J13" s="65"/>
+      <c r="J13" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="K13" s="55"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30" t="s">
@@ -4346,7 +4345,9 @@
       <c r="G29" s="54"/>
       <c r="H29" s="54"/>
       <c r="I29" s="56"/>
-      <c r="J29" s="65"/>
+      <c r="J29" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="K29" s="55"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30" t="s">
@@ -5333,7 +5334,9 @@
       <c r="G52" s="54"/>
       <c r="H52" s="54"/>
       <c r="I52" s="56"/>
-      <c r="J52" s="65"/>
+      <c r="J52" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="K52" s="55"/>
       <c r="L52" s="30"/>
       <c r="M52" s="30" t="s">
@@ -12523,27 +12526,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -12801,32 +12783,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12845,6 +12823,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/fseENABLER/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DATASOFTWARE/DATASOFTWARE_SRL/fseENABLER/1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\it-fse-accreditamento\GATEWAY\A1#111DATASOFTWARE\DATASOFTWARE_SRL\fseENABLER\1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Delphi\Intellilab-TOMMASO\FSE\2_0\Accreditamento-INI-fseENABLER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4CF0680-D251-4ABD-8236-50219B27F65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33F6CD4-EA7F-4BDE-BD25-A97E3E2259E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -974,24 +974,6 @@
     <t>2.16.840.1.113883.2.9.2.160.4.4.c1d6b373157064793952d003053e3a84be680d26a45363a036d9a8a1bff0adcc.7d74f89b0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-08-05T12:24:36.1807628+02:00</t>
-  </si>
-  <si>
-    <t>d845a5a8a32934ce412c579113251071</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b4134b60d040bdbad1e17e86ae35c0a306377890ed9a42ff503939889027454f.ec69dd6555^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-08-05T12:24:37.104708+02:00</t>
-  </si>
-  <si>
-    <t>ad493ca78da48e67f714648a0bda5ca8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.8449fd5a4e766e9285280dc3797a3bf0710a9e3bc7b9ea47aec9858e330b5451.fbc104ca14^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2025-08-05T12:24:50.8586051+02:00</t>
   </si>
   <si>
@@ -1008,6 +990,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.160.4.4.2452630da4fb706937456ce8470c7eda90e6783895d5050986cb23f1e2dd0e03.ba11123d82^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-08-20T17:24:56.0709199+02:00</t>
+  </si>
+  <si>
+    <t>83de55f4bccf68b8e8da0dc04accef1e</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b4134b60d040bdbad1e17e86ae35c0a306377890ed9a42ff503939889027454f.bcb1df5bb7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f637bc9f1ae8b8709d06a26f3e8371ca</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.8449fd5a4e766e9285280dc3797a3bf0710a9e3bc7b9ea47aec9858e330b5451.fc0dae36aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-08-20T17:24:57.1111248+02:00</t>
   </si>
 </sst>
 </file>
@@ -3213,10 +3213,10 @@
   <dimension ref="A1:W632"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5114,16 +5114,16 @@
         <v>195</v>
       </c>
       <c r="F47" s="54">
-        <v>45874</v>
+        <v>45889</v>
       </c>
       <c r="G47" s="54" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="H47" s="54" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="I47" s="56" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="J47" s="36" t="s">
         <v>52</v>
@@ -5161,16 +5161,16 @@
         <v>200</v>
       </c>
       <c r="F48" s="54">
-        <v>45874</v>
+        <v>45889</v>
       </c>
       <c r="G48" s="54" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H48" s="54" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="I48" s="56" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="J48" s="36" t="s">
         <v>52</v>
@@ -6018,13 +6018,13 @@
         <v>45874</v>
       </c>
       <c r="G68" s="54" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H68" s="54" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I68" s="56" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J68" s="36" t="s">
         <v>52</v>
@@ -6065,13 +6065,13 @@
         <v>45874</v>
       </c>
       <c r="G69" s="54" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H69" s="54" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I69" s="56" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="J69" s="36" t="s">
         <v>52</v>
@@ -12526,6 +12526,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -12783,28 +12804,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12823,31 +12848,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
